--- a/data/trans_bre/P1427-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1427-Clase-trans_bre.xlsx
@@ -638,20 +638,18 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.859444277062494</v>
+        <v>-3.063212470688618</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7039329817852961</v>
+        <v>-0.6529306515334768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.003853645802084</v>
+        <v>-2.185425241208052</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
-      <c r="G5" s="6" t="n">
-        <v>-0.6874698871233212</v>
-      </c>
+      <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.610716345384376</v>
+        <v>-0.6156526087826546</v>
       </c>
     </row>
     <row r="6">
@@ -662,20 +660,18 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.00712700671536815</v>
+        <v>0.06822289348745411</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.007121043103267</v>
+        <v>3.028464086584371</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8660441086368647</v>
+        <v>0.8552652546540307</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
-      <c r="G6" s="6" t="n">
-        <v>9.814997915516308</v>
-      </c>
+      <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>0.5775781251968075</v>
+        <v>0.5521261693776163</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +692,7 @@
         <v>0.07575046556859855</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2527267738758585</v>
+        <v>0.2527267738758588</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.2884069713165104</v>
@@ -705,7 +701,7 @@
         <v>0.09577571805058692</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1185639046310587</v>
+        <v>0.1185639046310589</v>
       </c>
     </row>
     <row r="8">
@@ -716,20 +712,18 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.408521326203509</v>
+        <v>-2.329239052042235</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.180115988259918</v>
+        <v>-1.212966534090636</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.356939105106018</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-1.344107050235935</v>
+      </c>
+      <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.4877590542237504</v>
+        <v>-0.4645927475149307</v>
       </c>
     </row>
     <row r="9">
@@ -740,20 +734,18 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.92501096414625</v>
+        <v>2.064688628119733</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.585443823500119</v>
+        <v>1.429163773099071</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.91460082084977</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>4.154090142323102</v>
-      </c>
+        <v>1.932735951098183</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>1.29718667051704</v>
+        <v>1.438205514594343</v>
       </c>
     </row>
     <row r="10">
@@ -774,7 +766,7 @@
         <v>0.6291086438784725</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.806588567201301</v>
+        <v>2.806588567201302</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.5075391484956762</v>
@@ -794,22 +786,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.769726432270774</v>
+        <v>-2.938404954050721</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.837769075491118</v>
+        <v>-1.758989160844167</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2723904302500949</v>
+        <v>0.3013515713197256</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7447968745662608</v>
+        <v>-0.7269420945556911</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0249231438645238</v>
+        <v>0.06106556835102556</v>
       </c>
     </row>
     <row r="12">
@@ -820,22 +812,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8467152149566661</v>
+        <v>0.8424298610659544</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.193256406989121</v>
+        <v>4.215500103618997</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.991687879982139</v>
+        <v>5.915717967790442</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.6710257196216124</v>
+        <v>0.6956650951049501</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.085681808239582</v>
+        <v>3.300566239657385</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.959255596498532</v>
+        <v>3.015443854832331</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +848,7 @@
         <v>1.482607287775681</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-1.004264951941753</v>
+        <v>-1.004264951941752</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.4328832357889159</v>
@@ -865,7 +857,7 @@
         <v>2.255422602358771</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2604645953598978</v>
+        <v>-0.2604645953598976</v>
       </c>
     </row>
     <row r="14">
@@ -876,22 +868,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.586254699878817</v>
+        <v>-2.672658267702586</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4608780116712112</v>
+        <v>0.3558176626681961</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.386286838619709</v>
+        <v>-2.254783961603388</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7501280392326171</v>
+        <v>-0.7215245938966673</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1999599203046932</v>
+        <v>0.1138709465681041</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4963698316272524</v>
+        <v>-0.4787726955104976</v>
       </c>
     </row>
     <row r="15">
@@ -902,22 +894,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.247984451541705</v>
+        <v>0.166102544361579</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.828948008695285</v>
+        <v>2.826406905550385</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2066868073504815</v>
+        <v>0.3053165948325676</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1489851833125616</v>
+        <v>0.1682293899868999</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7.603114548559334</v>
+        <v>6.944812975403876</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07817117036079743</v>
+        <v>0.1273313687801573</v>
       </c>
     </row>
     <row r="16">
@@ -958,22 +950,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3158371645184863</v>
+        <v>0.1584087738918925</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.3078713707432309</v>
+        <v>-0.3426367444254009</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6593068659906599</v>
+        <v>0.6483586822617914</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.01885947098765502</v>
+        <v>-0.04779252077240604</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1711742226539579</v>
+        <v>-0.206775744169456</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1169651770077418</v>
+        <v>0.111542724113722</v>
       </c>
     </row>
     <row r="18">
@@ -984,22 +976,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.668816163393181</v>
+        <v>3.676493878303412</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.894339430412463</v>
+        <v>3.041866629687882</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.481436467604968</v>
+        <v>4.538242944642817</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5.025944902015521</v>
+        <v>5.211278313136289</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.787628146807316</v>
+        <v>2.794498217266054</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.29398421136161</v>
+        <v>1.328382362514813</v>
       </c>
     </row>
     <row r="19">
@@ -1044,18 +1036,18 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.277175594945678</v>
+        <v>3.031887092643361</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.606066326494594</v>
+        <v>1.62742548924462</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.027189119946994</v>
+        <v>3.118757979778178</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>1.057701283030941</v>
+        <v>1.208693386591715</v>
       </c>
     </row>
     <row r="21">
@@ -1066,18 +1058,18 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.784407507092229</v>
+        <v>5.768714940130707</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.66537196261436</v>
+        <v>3.669329347132064</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.275661207229125</v>
+        <v>6.249136069762393</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>26.72021663203196</v>
+        <v>27.04805125954931</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1090,7 @@
         <v>1.233219563211903</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.265534108140531</v>
+        <v>1.265534108140532</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.3347301587956492</v>
@@ -1107,7 +1099,7 @@
         <v>1.179868192463241</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4037648261150725</v>
+        <v>0.403764826115073</v>
       </c>
     </row>
     <row r="23">
@@ -1118,22 +1110,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1276353790633194</v>
+        <v>-0.08839807281523071</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6834257343252677</v>
+        <v>0.5842000269612505</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5815226765437701</v>
+        <v>0.6068102415626312</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.05481300736327926</v>
+        <v>-0.04407763392261625</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5205952500701373</v>
+        <v>0.4287053521797449</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1631887457998765</v>
+        <v>0.1769527725870871</v>
       </c>
     </row>
     <row r="24">
@@ -1144,22 +1136,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.40139350829623</v>
+        <v>1.398226916587312</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.938460691175562</v>
+        <v>1.918059056628198</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.025407083244716</v>
+        <v>2.062497020230865</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.8770952611929246</v>
+        <v>0.8781959815622836</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.338154558492154</v>
+        <v>2.329333172181376</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7305142001332753</v>
+        <v>0.7358246884949339</v>
       </c>
     </row>
     <row r="25">
